--- a/user.xlsx
+++ b/user.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/git/study-service-pro/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxianbin/git/study-service-pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>account</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>512930196302025753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5129301963020257123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -478,6 +482,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>25753</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1010750447</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
